--- a/docs/中三班幼儿中秋节假期行程统计.xlsx
+++ b/docs/中三班幼儿中秋节假期行程统计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>序号</t>
   </si>
@@ -46,175 +46,151 @@
     <t>曹瀚仪</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>曾飞翔</t>
+  </si>
+  <si>
+    <t>曾浩</t>
+  </si>
+  <si>
+    <t>不离深</t>
+  </si>
+  <si>
+    <t>曾浩然</t>
+  </si>
+  <si>
+    <t>在深圳</t>
+  </si>
+  <si>
+    <t>陈建安</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>程俊然</t>
+  </si>
+  <si>
+    <t>19-21号在深圳</t>
+  </si>
+  <si>
+    <t>程语权</t>
+  </si>
+  <si>
+    <t>邓鸿鑫</t>
+  </si>
+  <si>
+    <t>邓茜玮</t>
+  </si>
+  <si>
+    <t>杜雨虹</t>
+  </si>
+  <si>
+    <t>冯煊琪</t>
+  </si>
+  <si>
+    <t>符大勋</t>
+  </si>
+  <si>
+    <t>甘欣桐</t>
+  </si>
+  <si>
+    <t>何兴辰</t>
+  </si>
+  <si>
+    <t>胡逸晞</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
-    <t>东莞市</t>
+    <t>陆丰</t>
+  </si>
+  <si>
+    <t>高铁</t>
+  </si>
+  <si>
+    <t>22号</t>
+  </si>
+  <si>
+    <t>黄俊宇</t>
+  </si>
+  <si>
+    <t>黄清雅</t>
+  </si>
+  <si>
+    <t>在深</t>
+  </si>
+  <si>
+    <t>黄卫灵</t>
+  </si>
+  <si>
+    <t>黄奕衡</t>
+  </si>
+  <si>
+    <t>黄雨婷</t>
+  </si>
+  <si>
+    <t>楼下活动</t>
+  </si>
+  <si>
+    <t>赖雯丽</t>
+  </si>
+  <si>
+    <t>李嘉</t>
+  </si>
+  <si>
+    <t>李园</t>
+  </si>
+  <si>
+    <t>龙彩浈</t>
+  </si>
+  <si>
+    <t>卢皓圣</t>
+  </si>
+  <si>
+    <t>罗梓凡</t>
+  </si>
+  <si>
+    <t>罗梓欣</t>
+  </si>
+  <si>
+    <t>湖南省怀化市鹤城区</t>
+  </si>
+  <si>
+    <t>10.06</t>
+  </si>
+  <si>
+    <t>麦朝棉</t>
+  </si>
+  <si>
+    <t>留深</t>
+  </si>
+  <si>
+    <t>毛奕婷</t>
+  </si>
+  <si>
+    <t>施童垚</t>
+  </si>
+  <si>
+    <t>覃渝竣</t>
+  </si>
+  <si>
+    <t>吴画迪</t>
+  </si>
+  <si>
+    <t>吴未晞</t>
+  </si>
+  <si>
+    <t>江西省赣州市宁都县</t>
   </si>
   <si>
     <t>自驾</t>
-  </si>
-  <si>
-    <t>预计21号</t>
-  </si>
-  <si>
-    <t>曾飞翔</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>曾浩</t>
-  </si>
-  <si>
-    <t>不离深</t>
-  </si>
-  <si>
-    <t>曾浩然</t>
-  </si>
-  <si>
-    <t>在深圳</t>
-  </si>
-  <si>
-    <t>陈建安</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>程俊然</t>
-  </si>
-  <si>
-    <t>19-21号在深圳</t>
-  </si>
-  <si>
-    <t>程语权</t>
-  </si>
-  <si>
-    <t>邓鸿鑫</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>邓茜玮</t>
-  </si>
-  <si>
-    <t>广州市南沙区/中山市黄铺区</t>
-  </si>
-  <si>
-    <t>自驾车</t>
-  </si>
-  <si>
-    <t>9月22日</t>
-  </si>
-  <si>
-    <t>杜雨虹</t>
-  </si>
-  <si>
-    <t>冯煊琪</t>
-  </si>
-  <si>
-    <t>符大勋</t>
-  </si>
-  <si>
-    <t>甘欣桐</t>
-  </si>
-  <si>
-    <t>何兴辰</t>
-  </si>
-  <si>
-    <t>胡逸晞</t>
-  </si>
-  <si>
-    <t>陆丰</t>
-  </si>
-  <si>
-    <t>高铁</t>
-  </si>
-  <si>
-    <t>22号</t>
-  </si>
-  <si>
-    <t>黄俊宇</t>
-  </si>
-  <si>
-    <t>黄清雅</t>
-  </si>
-  <si>
-    <t>在深</t>
-  </si>
-  <si>
-    <t>黄卫灵</t>
-  </si>
-  <si>
-    <t>黄奕衡</t>
-  </si>
-  <si>
-    <t>黄雨婷</t>
-  </si>
-  <si>
-    <t>中山</t>
-  </si>
-  <si>
-    <t>当天</t>
-  </si>
-  <si>
-    <t>赖雯丽</t>
-  </si>
-  <si>
-    <t>李嘉</t>
-  </si>
-  <si>
-    <t>李园</t>
-  </si>
-  <si>
-    <t>龙彩浈</t>
-  </si>
-  <si>
-    <t>广东省东莞市大朗镇或大岭山镇</t>
-  </si>
-  <si>
-    <t>2021.09.21</t>
-  </si>
-  <si>
-    <t>卢皓圣</t>
-  </si>
-  <si>
-    <t>罗梓凡</t>
-  </si>
-  <si>
-    <t>罗梓欣</t>
-  </si>
-  <si>
-    <t>湖南省怀化市鹤城区</t>
-  </si>
-  <si>
-    <t>10.06</t>
-  </si>
-  <si>
-    <t>麦朝棉</t>
-  </si>
-  <si>
-    <t>留深</t>
-  </si>
-  <si>
-    <t>毛奕婷</t>
-  </si>
-  <si>
-    <t>施童垚</t>
-  </si>
-  <si>
-    <t>覃渝竣</t>
-  </si>
-  <si>
-    <t>吴画迪</t>
-  </si>
-  <si>
-    <t>吴未晞</t>
-  </si>
-  <si>
-    <t>江西省赣州市宁都县</t>
   </si>
   <si>
     <t>21日</t>
@@ -895,15 +871,20 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="51" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="51" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1290,7 +1271,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1327,993 +1308,993 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
         <v>73</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>81</v>
-      </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
